--- a/Bao Cao Lien Tuc/Long _test_23_02/Danh sach cong viec can Test.xlsx
+++ b/Bao Cao Lien Tuc/Long _test_23_02/Danh sach cong viec can Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="19095" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="195" windowWidth="19095" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DS Cong Viec Site NganHang" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="65">
   <si>
     <t>Mã CV</t>
   </si>
@@ -159,12 +159,6 @@
     <t>Lịch sử giao dịch</t>
   </si>
   <si>
-    <t>Cập nhật thông tin tài khoản</t>
-  </si>
-  <si>
-    <t>Cập nhật thông tin tài khoản cá nhân</t>
-  </si>
-  <si>
     <t xml:space="preserve">Đổi mật khẩu </t>
   </si>
   <si>
@@ -181,9 +175,6 @@
 _ làm thêm :Quên mật khẩu, quên email, liên hệ </t>
   </si>
   <si>
-    <t>còn nhiều link chưa xóa</t>
-  </si>
-  <si>
     <t>Tỏng hợp</t>
   </si>
   <si>
@@ -219,6 +210,19 @@
   </si>
   <si>
     <t>ok (chưa thể hiện lên web)</t>
+  </si>
+  <si>
+    <t>eror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả </t>
+  </si>
+  <si>
+    <t>chưa tìm kiếm được theo loại giao dịch</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin tài khoản
+(Cập nhật thông tin tài khoản cá nhân)</t>
   </si>
 </sst>
 </file>
@@ -411,6 +415,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -425,9 +432,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -752,13 +756,13 @@
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -1208,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1223,13 +1227,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
@@ -1333,7 +1337,7 @@
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
       <c r="E10" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,7 +1348,7 @@
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1355,7 +1359,7 @@
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
       <c r="E12" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,32 +1375,32 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C16" s="15"/>
-      <c r="D16" s="30">
+      <c r="D16" s="25">
         <v>1</v>
       </c>
       <c r="E16" s="16" t="s">
@@ -1406,10 +1410,10 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="15"/>
-      <c r="D17" s="30">
+      <c r="D17" s="25">
         <v>1</v>
       </c>
       <c r="E17" s="16" t="s">
@@ -1793,21 +1797,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E18"/>
+  <dimension ref="B4:F18"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
         <v>23</v>
       </c>
@@ -1817,7 +1822,7 @@
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="20"/>
       <c r="C5" s="21" t="s">
         <v>32</v>
@@ -1825,11 +1830,14 @@
       <c r="D5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="22">
         <v>1</v>
       </c>
@@ -1839,11 +1847,12 @@
       <c r="D6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E6" s="20"/>
+      <c r="F6" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="22">
         <v>2</v>
       </c>
@@ -1851,11 +1860,12 @@
         <v>38</v>
       </c>
       <c r="D7" s="22"/>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="20"/>
+      <c r="F7" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="22">
         <v>3</v>
       </c>
@@ -1864,10 +1874,11 @@
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="22">
         <v>4</v>
       </c>
@@ -1875,9 +1886,12 @@
         <v>42</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="22">
         <v>5</v>
       </c>
@@ -1885,9 +1899,12 @@
         <v>41</v>
       </c>
       <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="22">
         <v>6</v>
       </c>
@@ -1895,75 +1912,90 @@
         <v>43</v>
       </c>
       <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="22">
         <v>7</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>44</v>
+      <c r="C12" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="22">
         <v>8</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="22">
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="22">
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="20"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="22">
         <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="22">
         <v>12</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="22">
         <v>13</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1974,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,7 +2050,7 @@
         <v>36</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="45" x14ac:dyDescent="0.25">
@@ -2047,11 +2079,11 @@
         <v>4</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -2079,7 +2111,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2089,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2099,7 +2131,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2109,7 +2141,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
@@ -2119,7 +2151,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2129,7 +2161,7 @@
         <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
@@ -2139,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
@@ -2149,7 +2181,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
